--- a/docs/data/composite_score.xlsx
+++ b/docs/data/composite_score.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.8762882468155535</v>
+        <v>0.6367061895422116</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2.832478632478633</v>
+        <v>2.151694113166132</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.4996673320026613</v>
+        <v>0.4152559601949424</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.956315289648623</v>
+        <v>1.480351279544436</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2.571428571428571</v>
+        <v>1.816164731501566</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="C7">
-        <v>1.148809523809524</v>
+        <v>0.6751159698831268</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
         </is>
       </c>
       <c r="C8">
-        <v>1.723076923076923</v>
+        <v>0.8343256418679427</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -531,11 +531,11 @@
         </is>
       </c>
       <c r="C9">
-        <v>1.029940119760479</v>
+        <v>0.8495813633245719</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -551,11 +551,11 @@
         </is>
       </c>
       <c r="C10">
-        <v>2.721367521367521</v>
+        <v>1.662427194835814</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -571,11 +571,11 @@
         </is>
       </c>
       <c r="C11">
-        <v>2.564102564102564</v>
+        <v>1.574504923760461</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -591,11 +591,11 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.042735042735043</v>
+        <v>0.7008685365784988</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -611,11 +611,11 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.476495726495727</v>
+        <v>1.051779167353432</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -631,11 +631,11 @@
         </is>
       </c>
       <c r="C14">
-        <v>2.407814407814408</v>
+        <v>1.578132928486704</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -651,11 +651,11 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.269461077844311</v>
+        <v>0.9660305703137798</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -671,11 +671,11 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.247863247863248</v>
+        <v>0.9262786326610984</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.073504273504273</v>
+        <v>0.7113661375202767</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.9461077844311377</v>
+        <v>0.5943664124520932</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="C19">
-        <v>1.45679012345679</v>
+        <v>0.9706532156137764</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>2.918367346938775</v>
+        <v>1.971854147155835</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -771,11 +771,11 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.584682611047959</v>
+        <v>1.029056510453705</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.7894211576846307</v>
+        <v>0.6041801011699841</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -811,11 +811,11 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.230769230769231</v>
+        <v>0.7042547396290442</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -831,11 +831,11 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.377551020408163</v>
+        <v>1.58090015259156</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -851,11 +851,11 @@
         </is>
       </c>
       <c r="C25">
-        <v>2.473748473748474</v>
+        <v>1.274431542096313</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -871,11 +871,11 @@
         </is>
       </c>
       <c r="C26">
-        <v>1.821428571428571</v>
+        <v>1.017195898095257</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -891,11 +891,11 @@
         </is>
       </c>
       <c r="C27">
-        <v>1.351297405189621</v>
+        <v>0.9527646380022146</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
         </is>
       </c>
       <c r="C28">
-        <v>1.452991452991453</v>
+        <v>0.7544713918411923</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>2.54421768707483</v>
+        <v>1.810803237471412</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.860778443113772</v>
+        <v>1.114186473952443</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.5178571428571428</v>
+        <v>0.5220518108279673</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>1.612244897959184</v>
+        <v>1.271786279135188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1011,11 +1011,11 @@
         </is>
       </c>
       <c r="C33">
-        <v>1.154690618762475</v>
+        <v>0.803645219242051</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1031,11 +1031,11 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.170940170940171</v>
+        <v>0.8064669670138866</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1051,11 +1051,11 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.991071428571429</v>
+        <v>1.285297181325016</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.618233618233618</v>
+        <v>0.972578313468646</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1091,11 +1091,11 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.675213675213675</v>
+        <v>1.092784966663571</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="C38">
-        <v>2.265469061876248</v>
+        <v>1.332853528599145</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.8376580172987359</v>
+        <v>0.5161523701148558</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="C40">
-        <v>1.918803418803419</v>
+        <v>1.249578634798395</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1171,11 +1171,11 @@
         </is>
       </c>
       <c r="C41">
-        <v>1.196581196581197</v>
+        <v>0.5775327841399486</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1191,11 +1191,11 @@
         </is>
       </c>
       <c r="C42">
-        <v>1.242182302062542</v>
+        <v>0.8728116804391033</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="C43">
-        <v>1.636726546906188</v>
+        <v>0.9603021918282103</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>2.58974358974359</v>
+        <v>1.792195576980931</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1251,11 +1251,11 @@
         </is>
       </c>
       <c r="C45">
-        <v>2.466067864271457</v>
+        <v>1.328054682765954</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>1.596141051230872</v>
+        <v>1.225163696714938</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>2.918367346938775</v>
+        <v>2.508482521899435</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
         </is>
       </c>
       <c r="C48">
-        <v>1.080838323353293</v>
+        <v>0.8090840305675493</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.578176979374584</v>
+        <v>1.185328245786839</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>2.013605442176871</v>
+        <v>1.689946331205805</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1371,11 +1371,11 @@
         </is>
       </c>
       <c r="C51">
-        <v>1.571428571428571</v>
+        <v>1.061578259065911</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.5272457014453248</v>
+        <v>0.4005772878787622</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>2.87624750499002</v>
+        <v>1.752304306788031</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.5285714285714286</v>
+        <v>0.3908166912043015</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="C55">
-        <v>1.864271457085828</v>
+        <v>1.281799565195446</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1471,11 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.621428571428571</v>
+        <v>1.055425278245005</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.8394694129157405</v>
+        <v>0.7133060869313723</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1511,11 +1511,11 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.462075848303393</v>
+        <v>0.9082139757205137</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1531,11 +1531,11 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.816239316239316</v>
+        <v>1.164488941466887</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1551,11 +1551,11 @@
         </is>
       </c>
       <c r="C60">
-        <v>1.52228875582169</v>
+        <v>0.975475692618172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1571,11 +1571,11 @@
         </is>
       </c>
       <c r="C61">
-        <v>1.779761904761905</v>
+        <v>1.093860511706489</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1591,11 +1591,11 @@
         </is>
       </c>
       <c r="C62">
-        <v>1.622448979591837</v>
+        <v>1.003582302218997</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.342857142857143</v>
+        <v>0.8837556744572219</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>2.466067864271457</v>
+        <v>1.847294697855373</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1651,11 +1651,11 @@
         </is>
       </c>
       <c r="C65">
-        <v>1.504273504273504</v>
+        <v>0.8605934767954495</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.9088319088319088</v>
+        <v>0.6550104486463219</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>2.067198935462408</v>
+        <v>1.376570428220897</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1711,11 +1711,11 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.129740518962076</v>
+        <v>0.7362833121018495</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1731,11 +1731,11 @@
         </is>
       </c>
       <c r="C69">
-        <v>1.183673469387755</v>
+        <v>0.8218236205635329</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1751,11 +1751,11 @@
         </is>
       </c>
       <c r="C70">
-        <v>1.151785714285714</v>
+        <v>0.811746439279329</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1771,11 +1771,11 @@
         </is>
       </c>
       <c r="C71">
-        <v>1.596581196581197</v>
+        <v>0.8407651782192986</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="C72">
-        <v>2.530612244897959</v>
+        <v>1.694656653543663</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1811,11 +1811,11 @@
         </is>
       </c>
       <c r="C73">
-        <v>1.085419223366493</v>
+        <v>0.7232782312579946</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>2.504273504273504</v>
+        <v>1.787881131648522</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>3.538461538461539</v>
+        <v>2.337542246996575</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>1.986394557823129</v>
+        <v>1.538267214068107</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.5708582834331337</v>
+        <v>0.3657798483147726</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1911,11 +1911,11 @@
         </is>
       </c>
       <c r="C78">
-        <v>1.322532513681289</v>
+        <v>0.837845077440315</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="C79">
-        <v>2.102040816326531</v>
+        <v>1.320452205134144</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>2.072854291417165</v>
+        <v>1.615973575159628</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
